--- a/data/local/lng/json_edit_assist_SORTTEST.xlsx
+++ b/data/local/lng/json_edit_assist_SORTTEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rucdk-my.sharepoint.com/personal/magnuha_ruc_dk/Documents/Documents/GitHub/d2-nd-jexmod/data/local/lng/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{021FB881-9F2D-433C-86BC-EBD06EE97671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26BF03DD-9696-4728-A627-3E8CA9F4324D}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{021FB881-9F2D-433C-86BC-EBD06EE97671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC5424EC-04D1-4B86-AEC5-FA52B0347230}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4E40BB80-C711-41B6-B080-B20F7E1C8A69}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="206">
   <si>
     <t>,</t>
   </si>
@@ -598,9 +598,6 @@
     <t>aa4</t>
   </si>
   <si>
-    <t>xb2</t>
-  </si>
-  <si>
     <t>aa5</t>
   </si>
   <si>
@@ -656,6 +653,12 @@
   </si>
   <si>
     <t>Precise Bidding</t>
+  </si>
+  <si>
+    <t>aa0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A74C39-008D-49E2-810D-C8ACB2C2EFCF}">
   <dimension ref="A1:A1584"/>
   <sheetViews>
-    <sheetView topLeftCell="A1564" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1584"/>
     </sheetView>
   </sheetViews>
@@ -8997,10 +9000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28640A19-9BFC-49A0-9A4A-1C2CC136A2D7}">
-  <dimension ref="A1:A1732"/>
+  <dimension ref="A2:A1732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1567" workbookViewId="0">
-      <selection activeCell="A1551" sqref="A1551"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1584" sqref="A1:A1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9008,12 +9011,6 @@
     <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="str">
-        <f>json!A1</f>
-        <v>,</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>json!A2</f>
@@ -9113,13 +9110,7 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>json!A18</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f>json!A19</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
@@ -9221,13 +9212,7 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>json!A36</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="str">
-        <f>json!A37</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
@@ -9329,13 +9314,7 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>json!A54</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
-        <f>json!A55</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
@@ -9437,13 +9416,7 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>json!A72</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="str">
-        <f>json!A73</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
@@ -9545,13 +9518,7 @@
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>json!A90</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="str">
-        <f>json!A91</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
@@ -9653,13 +9620,7 @@
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>json!A108</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="str">
-        <f>json!A109</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
@@ -9761,13 +9722,7 @@
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>json!A126</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="str">
-        <f>json!A127</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
@@ -9869,13 +9824,7 @@
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>json!A144</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="str">
-        <f>json!A145</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
@@ -9977,13 +9926,7 @@
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>json!A162</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="str">
-        <f>json!A163</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
@@ -10085,13 +10028,7 @@
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
         <f>json!A180</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="str">
-        <f>json!A181</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
@@ -10193,13 +10130,7 @@
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="str">
         <f>json!A198</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="str">
-        <f>json!A199</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
@@ -10301,13 +10232,7 @@
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="str">
         <f>json!A216</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" t="str">
-        <f>json!A217</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
@@ -10409,13 +10334,7 @@
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="str">
         <f>json!A234</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" t="str">
-        <f>json!A235</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
@@ -10517,13 +10436,7 @@
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="str">
         <f>json!A252</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="str">
-        <f>json!A253</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
@@ -10625,13 +10538,7 @@
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="str">
         <f>json!A270</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="str">
-        <f>json!A271</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
@@ -10733,13 +10640,7 @@
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="str">
         <f>json!A288</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="str">
-        <f>json!A289</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
@@ -10841,13 +10742,7 @@
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" t="str">
         <f>json!A306</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" t="str">
-        <f>json!A307</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.35">
@@ -10949,13 +10844,7 @@
     <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" t="str">
         <f>json!A324</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A325" t="str">
-        <f>json!A325</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.35">
@@ -11057,13 +10946,7 @@
     <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" t="str">
         <f>json!A342</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A343" t="str">
-        <f>json!A343</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.35">
@@ -11165,13 +11048,7 @@
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" t="str">
         <f>json!A360</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A361" t="str">
-        <f>json!A361</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
@@ -11273,13 +11150,7 @@
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" t="str">
         <f>json!A378</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A379" t="str">
-        <f>json!A379</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
@@ -11381,13 +11252,7 @@
     <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" t="str">
         <f>json!A396</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A397" t="str">
-        <f>json!A397</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.35">
@@ -11489,13 +11354,7 @@
     <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414" t="str">
         <f>json!A414</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A415" t="str">
-        <f>json!A415</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.35">
@@ -11597,13 +11456,7 @@
     <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432" t="str">
         <f>json!A432</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A433" t="str">
-        <f>json!A433</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.35">
@@ -11705,13 +11558,7 @@
     <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450" t="str">
         <f>json!A450</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A451" t="str">
-        <f>json!A451</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.35">
@@ -11813,13 +11660,7 @@
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468" t="str">
         <f>json!A468</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A469" t="str">
-        <f>json!A469</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.35">
@@ -11921,13 +11762,7 @@
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486" t="str">
         <f>json!A486</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A487" t="str">
-        <f>json!A487</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.35">
@@ -12029,13 +11864,7 @@
     <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504" t="str">
         <f>json!A504</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A505" t="str">
-        <f>json!A505</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.35">
@@ -12137,13 +11966,7 @@
     <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522" t="str">
         <f>json!A522</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A523" t="str">
-        <f>json!A523</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.35">
@@ -12245,13 +12068,7 @@
     <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540" t="str">
         <f>json!A540</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A541" t="str">
-        <f>json!A541</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.35">
@@ -12353,13 +12170,7 @@
     <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558" t="str">
         <f>json!A558</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A559" t="str">
-        <f>json!A559</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
@@ -12461,13 +12272,7 @@
     <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576" t="str">
         <f>json!A576</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A577" t="str">
-        <f>json!A577</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.35">
@@ -12569,13 +12374,7 @@
     <row r="594" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A594" t="str">
         <f>json!A594</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A595" t="str">
-        <f>json!A595</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.35">
@@ -12677,13 +12476,7 @@
     <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612" t="str">
         <f>json!A612</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A613" t="str">
-        <f>json!A613</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.35">
@@ -12785,13 +12578,7 @@
     <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630" t="str">
         <f>json!A630</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A631" t="str">
-        <f>json!A631</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.35">
@@ -12893,13 +12680,7 @@
     <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648" t="str">
         <f>json!A648</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A649" t="str">
-        <f>json!A649</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.35">
@@ -13001,13 +12782,7 @@
     <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666" t="str">
         <f>json!A666</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A667" t="str">
-        <f>json!A667</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.35">
@@ -13109,13 +12884,7 @@
     <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684" t="str">
         <f>json!A684</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A685" t="str">
-        <f>json!A685</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.35">
@@ -13217,13 +12986,7 @@
     <row r="702" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A702" t="str">
         <f>json!A702</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703" t="str">
-        <f>json!A703</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.35">
@@ -13325,13 +13088,7 @@
     <row r="720" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A720" t="str">
         <f>json!A720</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A721" t="str">
-        <f>json!A721</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.35">
@@ -13433,13 +13190,7 @@
     <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738" t="str">
         <f>json!A738</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A739" t="str">
-        <f>json!A739</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.35">
@@ -13541,13 +13292,7 @@
     <row r="756" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A756" t="str">
         <f>json!A756</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757" t="str">
-        <f>json!A757</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.35">
@@ -13649,13 +13394,7 @@
     <row r="774" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A774" t="str">
         <f>json!A774</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A775" t="str">
-        <f>json!A775</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.35">
@@ -13757,13 +13496,7 @@
     <row r="792" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A792" t="str">
         <f>json!A792</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A793" t="str">
-        <f>json!A793</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.35">
@@ -13865,13 +13598,7 @@
     <row r="810" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A810" t="str">
         <f>json!A810</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A811" t="str">
-        <f>json!A811</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.35">
@@ -13973,13 +13700,7 @@
     <row r="828" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A828" t="str">
         <f>json!A828</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A829" t="str">
-        <f>json!A829</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.35">
@@ -14081,13 +13802,7 @@
     <row r="846" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A846" t="str">
         <f>json!A846</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A847" t="str">
-        <f>json!A847</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.35">
@@ -14189,13 +13904,7 @@
     <row r="864" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A864" t="str">
         <f>json!A864</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A865" t="str">
-        <f>json!A865</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.35">
@@ -14297,13 +14006,7 @@
     <row r="882" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A882" t="str">
         <f>json!A882</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A883" t="str">
-        <f>json!A883</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.35">
@@ -14405,13 +14108,7 @@
     <row r="900" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A900" t="str">
         <f>json!A900</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A901" t="str">
-        <f>json!A901</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.35">
@@ -14513,13 +14210,7 @@
     <row r="918" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A918" t="str">
         <f>json!A918</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A919" t="str">
-        <f>json!A919</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.35">
@@ -14621,13 +14312,7 @@
     <row r="936" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A936" t="str">
         <f>json!A936</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A937" t="str">
-        <f>json!A937</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.35">
@@ -14729,13 +14414,7 @@
     <row r="954" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A954" t="str">
         <f>json!A954</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A955" t="str">
-        <f>json!A955</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.35">
@@ -14837,13 +14516,7 @@
     <row r="972" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A972" t="str">
         <f>json!A972</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A973" t="str">
-        <f>json!A973</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.35">
@@ -14945,13 +14618,7 @@
     <row r="990" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A990" t="str">
         <f>json!A990</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A991" t="str">
-        <f>json!A991</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.35">
@@ -15053,13 +14720,7 @@
     <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1008" t="str">
         <f>json!A1008</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1009" t="str">
-        <f>json!A1009</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
@@ -15161,13 +14822,7 @@
     <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1026" t="str">
         <f>json!A1026</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1027" t="str">
-        <f>json!A1027</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
@@ -15269,13 +14924,7 @@
     <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1044" t="str">
         <f>json!A1044</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1045" t="str">
-        <f>json!A1045</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
@@ -15377,13 +15026,7 @@
     <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1062" t="str">
         <f>json!A1062</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1063" t="str">
-        <f>json!A1063</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
@@ -15485,13 +15128,7 @@
     <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1080" t="str">
         <f>json!A1080</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1081" t="str">
-        <f>json!A1081</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
@@ -15593,13 +15230,7 @@
     <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1098" t="str">
         <f>json!A1098</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1099" t="str">
-        <f>json!A1099</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
@@ -15701,13 +15332,7 @@
     <row r="1116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1116" t="str">
         <f>json!A1116</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1117" t="str">
-        <f>json!A1117</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.35">
@@ -15809,13 +15434,7 @@
     <row r="1134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1134" t="str">
         <f>json!A1134</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1135" t="str">
-        <f>json!A1135</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.35">
@@ -15917,13 +15536,7 @@
     <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1152" t="str">
         <f>json!A1152</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1153" t="str">
-        <f>json!A1153</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
@@ -16025,13 +15638,7 @@
     <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1170" t="str">
         <f>json!A1170</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1171" t="str">
-        <f>json!A1171</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
@@ -16133,13 +15740,7 @@
     <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1188" t="str">
         <f>json!A1188</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1189" t="str">
-        <f>json!A1189</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
@@ -16157,7 +15758,7 @@
     <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1192" t="str">
         <f>json!A1192&amp;keys!A1192&amp;json!B1192</f>
-        <v xml:space="preserve">    "Key": "aa1",</v>
+        <v xml:space="preserve">    "Key": "aa0",</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
@@ -16241,13 +15842,7 @@
     <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1206" t="str">
         <f>json!A1206</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1207" t="str">
-        <f>json!A1207</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
@@ -16265,7 +15860,7 @@
     <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1210" t="str">
         <f>json!A1210&amp;keys!A1210&amp;json!B1210</f>
-        <v xml:space="preserve">    "Key": "aa2",</v>
+        <v xml:space="preserve">    "Key": "aa1",</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
@@ -16349,13 +15944,7 @@
     <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1224" t="str">
         <f>json!A1224</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1225" t="str">
-        <f>json!A1225</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
@@ -16373,7 +15962,7 @@
     <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1228" t="str">
         <f>json!A1228&amp;keys!A1228&amp;json!B1228</f>
-        <v xml:space="preserve">    "Key": "aa3",</v>
+        <v xml:space="preserve">    "Key": "aa2",</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
@@ -16457,13 +16046,7 @@
     <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1242" t="str">
         <f>json!A1242</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1243" t="str">
-        <f>json!A1243</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
@@ -16481,7 +16064,7 @@
     <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1246" t="str">
         <f>json!A1246&amp;keys!A1246&amp;json!B1246</f>
-        <v xml:space="preserve">    "Key": "aa4",</v>
+        <v xml:space="preserve">    "Key": "aa3",</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
@@ -16565,13 +16148,7 @@
     <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1260" t="str">
         <f>json!A1260</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1261" t="str">
-        <f>json!A1261</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
@@ -16589,7 +16166,7 @@
     <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1264" t="str">
         <f>json!A1264&amp;keys!A1264&amp;json!B1264</f>
-        <v xml:space="preserve">    "Key": "xb2",</v>
+        <v xml:space="preserve">    "Key": "aa4",</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
@@ -16673,13 +16250,7 @@
     <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1278" t="str">
         <f>json!A1278</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1279" t="str">
-        <f>json!A1279</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
@@ -16781,13 +16352,7 @@
     <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1296" t="str">
         <f>json!A1296</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1297" t="str">
-        <f>json!A1297</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
@@ -16889,13 +16454,7 @@
     <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1314" t="str">
         <f>json!A1314</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1315" t="str">
-        <f>json!A1315</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
@@ -16997,13 +16556,7 @@
     <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1332" t="str">
         <f>json!A1332</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1333" t="str">
-        <f>json!A1333</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
@@ -17105,13 +16658,7 @@
     <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1350" t="str">
         <f>json!A1350</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1351" t="str">
-        <f>json!A1351</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
@@ -17213,13 +16760,7 @@
     <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1368" t="str">
         <f>json!A1368</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1369" t="str">
-        <f>json!A1369</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
@@ -17321,13 +16862,7 @@
     <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1386" t="str">
         <f>json!A1386</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1387" t="str">
-        <f>json!A1387</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
@@ -17429,13 +16964,7 @@
     <row r="1404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1404" t="str">
         <f>json!A1404</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1405" t="str">
-        <f>json!A1405</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.35">
@@ -17537,13 +17066,7 @@
     <row r="1422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1422" t="str">
         <f>json!A1422</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1423" t="str">
-        <f>json!A1423</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.35">
@@ -17645,13 +17168,7 @@
     <row r="1440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1440" t="str">
         <f>json!A1440</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1441" t="str">
-        <f>json!A1441</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.35">
@@ -17753,13 +17270,7 @@
     <row r="1458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1458" t="str">
         <f>json!A1458</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1459" t="str">
-        <f>json!A1459</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.35">
@@ -17861,13 +17372,7 @@
     <row r="1476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1476" t="str">
         <f>json!A1476</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1477" t="str">
-        <f>json!A1477</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.35">
@@ -17969,13 +17474,7 @@
     <row r="1494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1494" t="str">
         <f>json!A1494</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1495" t="str">
-        <f>json!A1495</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.35">
@@ -18077,13 +17576,7 @@
     <row r="1512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1512" t="str">
         <f>json!A1512</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1513" t="str">
-        <f>json!A1513</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.35">
@@ -18185,13 +17678,7 @@
     <row r="1530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1530" t="str">
         <f>json!A1530</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1531" t="str">
-        <f>json!A1531</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.35">
@@ -18293,13 +17780,7 @@
     <row r="1548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1548" t="str">
         <f>json!A1548</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1549" t="str">
-        <f>json!A1549</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.35">
@@ -18401,13 +17882,7 @@
     <row r="1566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1566" t="str">
         <f>json!A1566</f>
-        <v xml:space="preserve">  }</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1567" t="str">
-        <f>json!A1567</f>
-        <v>,</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.35">
@@ -18509,7 +17984,7 @@
     <row r="1584" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1584" t="str">
         <f>json!A1584</f>
-        <v xml:space="preserve">  }</v>
+        <v xml:space="preserve">  },</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.35">
@@ -18533,16 +18008,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BB0889-2B3A-4A4F-8549-D2598D4C25A3}">
   <dimension ref="A1:P1584"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="A1566" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -18839,7 +18311,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
@@ -18849,11 +18321,6 @@
       </c>
       <c r="P18" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -18947,12 +18414,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -19046,12 +18508,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -19145,12 +18602,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -19244,12 +18696,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -19343,12 +18790,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -19442,12 +18884,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -19541,12 +18978,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -19640,12 +19072,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -19739,12 +19166,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -19838,12 +19260,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -19937,12 +19354,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -20036,12 +19448,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -20135,12 +19542,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -20234,12 +19636,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
@@ -20333,12 +19730,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -20432,12 +19824,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -20531,12 +19918,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -20630,12 +20012,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
@@ -20729,12 +20106,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
@@ -20828,12 +20200,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
@@ -20927,12 +20294,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
@@ -21026,12 +20388,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A415" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
@@ -21125,12 +20482,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A433" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
@@ -21224,12 +20576,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A451" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
@@ -21323,12 +20670,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A469" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
@@ -21422,12 +20764,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A487" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
@@ -21521,12 +20858,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A505" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
@@ -21620,12 +20952,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A523" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
@@ -21719,12 +21046,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A541" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
@@ -21818,12 +21140,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A559" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.35">
@@ -21917,12 +21234,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A577" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.35">
@@ -22016,12 +21328,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A595" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
@@ -22115,12 +21422,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A613" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.35">
@@ -22214,12 +21516,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A631" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.35">
@@ -22313,12 +21610,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A649" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.35">
@@ -22412,12 +21704,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A667" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.35">
@@ -22511,12 +21798,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A685" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.35">
@@ -22610,12 +21892,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A703" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.35">
@@ -22709,12 +21986,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A721" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.35">
@@ -22808,12 +22080,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A739" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.35">
@@ -22907,12 +22174,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A757" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.35">
@@ -23006,12 +22268,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A775" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.35">
@@ -23105,12 +22362,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A793" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.35">
@@ -23204,12 +22456,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A811" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.35">
@@ -23303,12 +22550,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A829" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.35">
@@ -23402,12 +22644,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A847" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.35">
@@ -23501,12 +22738,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A865" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.35">
@@ -23600,12 +22832,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A883" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.35">
@@ -23699,12 +22926,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A901" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.35">
@@ -23798,12 +23020,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A919" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.35">
@@ -23897,12 +23114,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A937" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.35">
@@ -23996,12 +23208,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A955" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.35">
@@ -24095,12 +23302,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A973" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.35">
@@ -24194,12 +23396,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A991" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.35">
@@ -24293,12 +23490,7 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1009" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
@@ -24392,12 +23584,7 @@
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1026" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1027" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
@@ -24491,12 +23678,7 @@
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1044" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1045" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.35">
@@ -24590,12 +23772,7 @@
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1063" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.35">
@@ -24689,12 +23866,7 @@
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1080" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1081" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.35">
@@ -24788,12 +23960,7 @@
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1098" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1099" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.35">
@@ -24887,12 +24054,7 @@
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1117" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.35">
@@ -24986,12 +24148,7 @@
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1135" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.35">
@@ -25085,12 +24242,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1152" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1153" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.35">
@@ -25184,12 +24336,7 @@
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1171" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.35">
@@ -25283,12 +24430,7 @@
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1189" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.35">
@@ -25382,12 +24524,7 @@
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1207" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.35">
@@ -25481,12 +24618,7 @@
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1224" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1225" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.35">
@@ -25580,12 +24712,7 @@
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1242" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1243" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.35">
@@ -25679,12 +24806,7 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1260" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1261" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.35">
@@ -25778,12 +24900,7 @@
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1278" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1279" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.35">
@@ -25877,12 +24994,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1296" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1297" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.35">
@@ -25976,12 +25088,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1314" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1315" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.35">
@@ -26075,12 +25182,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1332" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1333" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.35">
@@ -26174,12 +25276,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1350" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1351" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.35">
@@ -26273,12 +25370,7 @@
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1368" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1369" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.35">
@@ -26372,12 +25464,7 @@
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1386" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1387" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.35">
@@ -26471,12 +25558,7 @@
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1404" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1405" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.35">
@@ -26570,12 +25652,7 @@
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1422" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1423" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.35">
@@ -26669,12 +25746,7 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1440" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1441" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.35">
@@ -26768,12 +25840,7 @@
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1458" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1459" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.35">
@@ -26867,12 +25934,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1476" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1477" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.35">
@@ -26966,12 +26028,7 @@
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1494" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1495" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.35">
@@ -27065,12 +26122,7 @@
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1512" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1513" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.35">
@@ -27164,12 +26216,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1530" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1531" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.35">
@@ -27263,12 +26310,7 @@
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1548" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1549" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.35">
@@ -27362,12 +26404,7 @@
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1566" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1567" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.35">
@@ -27461,7 +26498,7 @@
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1584" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -27473,7 +26510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2269E998-0347-41F3-9180-EC847E1673B4}">
   <dimension ref="A3:B1586"/>
   <sheetViews>
-    <sheetView topLeftCell="A1573" workbookViewId="0">
+    <sheetView topLeftCell="A1563" workbookViewId="0">
       <selection activeCell="A1570" sqref="A1570"/>
     </sheetView>
   </sheetViews>
@@ -35677,7 +34714,7 @@
   <dimension ref="A4:B1587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B1587"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41822,7 +40859,7 @@
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1192" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B1192">
         <v>67</v>
@@ -41915,7 +40952,7 @@
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1210" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1210">
         <v>68</v>
@@ -42008,7 +41045,7 @@
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1228">
         <v>69</v>
@@ -42101,7 +41138,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1246" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1246">
         <v>70</v>
@@ -42194,7 +41231,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1264" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1264">
         <v>71</v>
@@ -42287,7 +41324,7 @@
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1282" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1282">
         <v>72</v>
@@ -42380,7 +41417,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1300" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1300">
         <v>73</v>
@@ -42473,7 +41510,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1318" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1318">
         <v>74</v>
@@ -42566,7 +41603,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1336" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1336">
         <v>75</v>
@@ -42659,7 +41696,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1354" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1354">
         <v>76</v>
@@ -42752,7 +41789,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1372" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1372">
         <v>77</v>
@@ -42845,7 +41882,7 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1390" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1390">
         <v>78</v>
@@ -42938,7 +41975,7 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1408" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1408">
         <v>79</v>
@@ -43031,7 +42068,7 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1426" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1426">
         <v>80</v>
@@ -43124,7 +42161,7 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1444" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1444">
         <v>81</v>
@@ -43217,7 +42254,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1462" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1462">
         <v>82</v>
@@ -43310,7 +42347,7 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1480" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1480">
         <v>83</v>
@@ -43403,7 +42440,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1498" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1498">
         <v>84</v>
@@ -43496,7 +42533,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1516" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1516">
         <v>85</v>
@@ -43589,7 +42626,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1534" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1534">
         <v>86</v>
@@ -43682,7 +42719,7 @@
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1552" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1552">
         <v>87</v>
@@ -43775,7 +42812,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1570" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1570">
         <v>88</v>
@@ -45746,7 +44783,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B365">
         <v>21</v>
@@ -46211,7 +45248,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B455">
         <v>26</v>
